--- a/docs/data_dictionary/environment/environment_data_dictionary.xlsx
+++ b/docs/data_dictionary/environment/environment_data_dictionary.xlsx
@@ -4,15 +4,15 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12800" windowHeight="11630" firstSheet="2" activeTab="5"/>
+    <workbookView windowWidth="25600" windowHeight="12080"/>
   </bookViews>
   <sheets>
-    <sheet name="Monitoring_Indicator" sheetId="1" r:id="rId1"/>
+    <sheet name="Calibration_Record" sheetId="1" r:id="rId1"/>
     <sheet name="Monitoring_Device" sheetId="2" r:id="rId2"/>
     <sheet name="Environmental_Data" sheetId="3" r:id="rId3"/>
-    <sheet name="Region" sheetId="4" r:id="rId4"/>
-    <sheet name="Calibration_Record" sheetId="5" r:id="rId5"/>
-    <sheet name="Alert" sheetId="6" r:id="rId6"/>
+    <sheet name="Alert" sheetId="4" r:id="rId4"/>
+    <sheet name="Monitoring_Indicator" sheetId="5" r:id="rId5"/>
+    <sheet name="Region" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,10 +43,166 @@
     <t>说明</t>
   </si>
   <si>
+    <t>record_id</t>
+  </si>
+  <si>
+    <t>VARCHAR(32)</t>
+  </si>
+  <si>
+    <t>校准记录编号（主键）</t>
+  </si>
+  <si>
+    <t>device_id</t>
+  </si>
+  <si>
+    <t>设备编号（外键，关联Monitoring_Device表device_id）</t>
+  </si>
+  <si>
+    <t>calibration_time</t>
+  </si>
+  <si>
+    <t>DATETIME</t>
+  </si>
+  <si>
+    <t>校准时间</t>
+  </si>
+  <si>
+    <t>technician</t>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+  </si>
+  <si>
+    <t>技术人员</t>
+  </si>
+  <si>
+    <t>remark</t>
+  </si>
+  <si>
+    <t>VARCHAR(100)</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>设备编号（主键）</t>
+  </si>
+  <si>
+    <t>device_type</t>
+  </si>
+  <si>
+    <t>设备类型</t>
+  </si>
+  <si>
+    <t>region_id</t>
+  </si>
+  <si>
+    <t>部署区域编号（外键，关联Region表region_id）</t>
+  </si>
+  <si>
+    <t>install_time</t>
+  </si>
+  <si>
+    <t>安装时间</t>
+  </si>
+  <si>
+    <t>calibration_cycle</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>校准周期（天）</t>
+  </si>
+  <si>
+    <t>run_status</t>
+  </si>
+  <si>
+    <t>VARCHAR(10)</t>
+  </si>
+  <si>
+    <t>运行状态</t>
+  </si>
+  <si>
+    <t>communication_protocol</t>
+  </si>
+  <si>
+    <t>VARCHAR(20)</t>
+  </si>
+  <si>
+    <t>通信协议</t>
+  </si>
+  <si>
+    <t>data_id</t>
+  </si>
+  <si>
+    <t>数据编号（主键）</t>
+  </si>
+  <si>
     <t>indicator_id</t>
   </si>
   <si>
-    <t>VARCHAR(32)</t>
+    <t>指标编号（外键，关联Monitoring_Indicator表indicator_id）</t>
+  </si>
+  <si>
+    <t>collect_time</t>
+  </si>
+  <si>
+    <t>采集时间</t>
+  </si>
+  <si>
+    <t>monitor_value</t>
+  </si>
+  <si>
+    <t>DECIMAL(10,2)</t>
+  </si>
+  <si>
+    <t>监测值</t>
+  </si>
+  <si>
+    <t>区域编号（外键，关联Region表region_id）</t>
+  </si>
+  <si>
+    <t>data_quality</t>
+  </si>
+  <si>
+    <t>数据质量</t>
+  </si>
+  <si>
+    <t>is_abnormal</t>
+  </si>
+  <si>
+    <t>BOOLEAN</t>
+  </si>
+  <si>
+    <t>是否异常</t>
+  </si>
+  <si>
+    <t>alert_id</t>
+  </si>
+  <si>
+    <t>预警编号（主键）</t>
+  </si>
+  <si>
+    <t>关联数据编号（外键，关联Environmental_Data表data_id）</t>
+  </si>
+  <si>
+    <t>alert_time</t>
+  </si>
+  <si>
+    <t>预警时间</t>
+  </si>
+  <si>
+    <t>alert_level</t>
+  </si>
+  <si>
+    <t>预警级别</t>
+  </si>
+  <si>
+    <t>alert_status</t>
+  </si>
+  <si>
+    <t>处理状态</t>
   </si>
   <si>
     <t>指标编号（主键）</t>
@@ -55,27 +211,18 @@
     <t>indicator_name</t>
   </si>
   <si>
-    <t>VARCHAR(50)</t>
-  </si>
-  <si>
     <t>指标名称</t>
   </si>
   <si>
     <t>unit</t>
   </si>
   <si>
-    <t>VARCHAR(20)</t>
-  </si>
-  <si>
     <t>计量单位</t>
   </si>
   <si>
     <t>upper_limit</t>
   </si>
   <si>
-    <t>DECIMAL(10,2)</t>
-  </si>
-  <si>
     <t>标准上限</t>
   </si>
   <si>
@@ -88,102 +235,9 @@
     <t>monitor_frequency</t>
   </si>
   <si>
-    <t>VARCHAR(10)</t>
-  </si>
-  <si>
     <t>监测频率（小时/日/周）</t>
   </si>
   <si>
-    <t>device_id</t>
-  </si>
-  <si>
-    <t>设备编号（主键）</t>
-  </si>
-  <si>
-    <t>device_type</t>
-  </si>
-  <si>
-    <t>设备类型</t>
-  </si>
-  <si>
-    <t>region_id</t>
-  </si>
-  <si>
-    <t>部署区域编号</t>
-  </si>
-  <si>
-    <t>install_time</t>
-  </si>
-  <si>
-    <t>DATETIME</t>
-  </si>
-  <si>
-    <t>安装时间</t>
-  </si>
-  <si>
-    <t>calibration_cycle</t>
-  </si>
-  <si>
-    <t>INT</t>
-  </si>
-  <si>
-    <t>校准周期（天）</t>
-  </si>
-  <si>
-    <t>run_status</t>
-  </si>
-  <si>
-    <t>运行状态</t>
-  </si>
-  <si>
-    <t>communication_protocol</t>
-  </si>
-  <si>
-    <t>通信协议</t>
-  </si>
-  <si>
-    <t>data_id</t>
-  </si>
-  <si>
-    <t>数据编号（主键）</t>
-  </si>
-  <si>
-    <t>指标编号</t>
-  </si>
-  <si>
-    <t>设备编号</t>
-  </si>
-  <si>
-    <t>collect_time</t>
-  </si>
-  <si>
-    <t>采集时间</t>
-  </si>
-  <si>
-    <t>monitor_value</t>
-  </si>
-  <si>
-    <t>监测值</t>
-  </si>
-  <si>
-    <t>区域编号</t>
-  </si>
-  <si>
-    <t>data_quality</t>
-  </si>
-  <si>
-    <t>数据质量</t>
-  </si>
-  <si>
-    <t>is_abnormal</t>
-  </si>
-  <si>
-    <t>BOOLEAN</t>
-  </si>
-  <si>
-    <t>是否异常</t>
-  </si>
-  <si>
     <t>区域编号（主键）</t>
   </si>
   <si>
@@ -197,60 +251,6 @@
   </si>
   <si>
     <t>功能分区类型</t>
-  </si>
-  <si>
-    <t>record_id</t>
-  </si>
-  <si>
-    <t>校准记录编号</t>
-  </si>
-  <si>
-    <t>calibration_time</t>
-  </si>
-  <si>
-    <t>校准时间</t>
-  </si>
-  <si>
-    <t>technician</t>
-  </si>
-  <si>
-    <t>技术人员</t>
-  </si>
-  <si>
-    <t>remark</t>
-  </si>
-  <si>
-    <t>VARCHAR(100)</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>alert_id</t>
-  </si>
-  <si>
-    <t>预警编号（主键）</t>
-  </si>
-  <si>
-    <t>关联数据编号</t>
-  </si>
-  <si>
-    <t>alert_time</t>
-  </si>
-  <si>
-    <t>预警时间</t>
-  </si>
-  <si>
-    <t>alert_level</t>
-  </si>
-  <si>
-    <t>预警级别</t>
-  </si>
-  <si>
-    <t>alert_status</t>
-  </si>
-  <si>
-    <t>处理状态</t>
   </si>
 </sst>
 </file>
@@ -263,12 +263,127 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -276,153 +391,44 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -618,12 +624,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -726,163 +747,156 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -936,7 +950,7 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -946,9 +960,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="WPS">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="WPS">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -956,39 +970,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4874CB"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="EE822F"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="F2BA02"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="75BD42"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="30C0B4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="E54C5E"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0026E5"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="7E1FAD"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="WPS">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1020,7 +1034,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1055,135 +1068,171 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="WPS">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumOff val="17500"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
-              <a:schemeClr val="phClr"/>
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="2700000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:hueOff val="-2520000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
-              <a:schemeClr val="phClr"/>
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="2700000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:gradFill>
-            <a:gsLst>
-              <a:gs pos="0">
-                <a:schemeClr val="phClr">
-                  <a:hueOff val="-4200000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="100000">
-                <a:schemeClr val="phClr"/>
-              </a:gs>
-            </a:gsLst>
-            <a:lin ang="2700000" scaled="1"/>
-          </a:gradFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="101600" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:schemeClr val="phClr">
-                <a:alpha val="60000"/>
-              </a:schemeClr>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:reflection stA="50000" endA="300" endPos="40000" dist="25400" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
           </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -1195,17 +1244,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="21.5454545454545" customWidth="1"/>
-    <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="26.9090909090909" customWidth="1"/>
+    <col min="1" max="1" width="26.5454545454545" customWidth="1"/>
+    <col min="2" max="2" width="21.2727272727273" customWidth="1"/>
+    <col min="3" max="3" width="62.2727272727273" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1219,75 +1268,63 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="28" spans="1:3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" ht="28" spans="1:3">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" ht="28" spans="1:3">
-      <c r="A4" s="2" t="s">
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2" t="s">
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" ht="28" spans="1:3">
-      <c r="A5" s="2" t="s">
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="2" t="s">
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" ht="28" spans="1:3">
-      <c r="A6" s="2" t="s">
+      <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" ht="42" spans="1:3">
-      <c r="A7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -1298,14 +1335,14 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="24.2727272727273" customWidth="1"/>
-    <col min="2" max="2" width="17.8181818181818" customWidth="1"/>
-    <col min="3" max="3" width="19.0909090909091" customWidth="1"/>
+    <col min="1" max="1" width="45.2727272727273" customWidth="1"/>
+    <col min="2" max="2" width="25.4545454545455" customWidth="1"/>
+    <col min="3" max="3" width="43.9090909090909" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1319,86 +1356,85 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="28" spans="1:3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" ht="28" spans="1:3">
-      <c r="A3" s="2" t="s">
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" ht="28" spans="1:3">
-      <c r="A4" s="2" t="s">
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" ht="28" spans="1:3">
-      <c r="A5" s="2" t="s">
+      <c r="C6" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="2" t="s">
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="B7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" ht="42" spans="1:3">
-      <c r="A6" s="2" t="s">
+      <c r="C7" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="2" t="s">
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="B8" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="7" ht="28" spans="1:3">
-      <c r="A7" s="2" t="s">
+      <c r="C8" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" ht="42" spans="1:3">
-      <c r="A8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>35</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -1409,14 +1445,14 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="18.7272727272727" customWidth="1"/>
-    <col min="2" max="2" width="19.3636363636364" customWidth="1"/>
-    <col min="3" max="3" width="21.8181818181818" customWidth="1"/>
+    <col min="1" max="1" width="35.4545454545455" customWidth="1"/>
+    <col min="2" max="2" width="30.6363636363636" customWidth="1"/>
+    <col min="3" max="3" width="115" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1430,97 +1466,96 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="28" spans="1:3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="2" t="s">
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" ht="28" spans="1:3">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" ht="28" spans="1:3">
-      <c r="A4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" ht="28" spans="1:3">
-      <c r="A5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" ht="28" spans="1:3">
-      <c r="A6" s="2" t="s">
+      <c r="C7" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="2" t="s">
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="7" ht="28" spans="1:3">
-      <c r="A7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" ht="28" spans="1:3">
-      <c r="A8" s="2" t="s">
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="B9" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="9" ht="28" spans="1:3">
-      <c r="A9" s="2" t="s">
+      <c r="C9" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>49</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -1528,20 +1563,20 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="15.9090909090909" customWidth="1"/>
-    <col min="2" max="2" width="14.4545454545455" customWidth="1"/>
-    <col min="3" max="3" width="14.0909090909091" customWidth="1"/>
+    <col min="1" max="1" width="24.9090909090909" customWidth="1"/>
+    <col min="2" max="2" width="31.9090909090909" customWidth="1"/>
+    <col min="3" max="3" width="62.9090909090909" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28" spans="1:3">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1552,37 +1587,59 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="28" spans="1:3">
-      <c r="A2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" ht="28" spans="1:3">
-      <c r="A3" s="2" t="s">
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" ht="28" spans="1:3">
-      <c r="A4" s="2" t="s">
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1594,20 +1651,20 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="B1" sqref="B$1:B$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="17.7272727272727" customWidth="1"/>
-    <col min="2" max="2" width="21.9090909090909" customWidth="1"/>
-    <col min="3" max="3" width="15.0909090909091" customWidth="1"/>
+    <col min="1" max="1" width="26.0909090909091" customWidth="1"/>
+    <col min="2" max="2" width="44.8181818181818" customWidth="1"/>
+    <col min="3" max="3" width="56.9090909090909" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28" spans="1:3">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1618,59 +1675,70 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="28" spans="1:3">
-      <c r="A2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" ht="28" spans="1:3">
-      <c r="A3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" ht="28" spans="1:3">
-      <c r="A4" s="2" t="s">
+      <c r="C2" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="2" t="s">
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="5" ht="28" spans="1:3">
-      <c r="A5" s="2" t="s">
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="2" t="s">
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="6" ht="28" spans="1:3">
-      <c r="A6" s="2" t="s">
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="2" t="s">
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1682,19 +1750,19 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="2" width="22.8181818181818" customWidth="1"/>
-    <col min="3" max="3" width="25.5454545454545" customWidth="1"/>
+    <col min="1" max="1" width="23.0909090909091" customWidth="1"/>
+    <col min="2" max="2" width="25.3636363636364" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28" spans="1:3">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1705,58 +1773,36 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="28" spans="1:3">
-      <c r="A2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" ht="28" spans="1:3">
-      <c r="A3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" ht="28" spans="1:3">
-      <c r="A4" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="C2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="5" ht="28" spans="1:3">
-      <c r="A5" s="2" t="s">
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="6" ht="28" spans="1:3">
-      <c r="A6" s="2" t="s">
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
         <v>71</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
         <v>72</v>
       </c>
     </row>
